--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2232539.681751104</v>
+        <v>-2235116.003232345</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>126.7498226612777</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>46.42246812243138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>159.6655995973487</v>
+        <v>229.1724600833321</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>306.1974492356247</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.09018561476175</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>64.09441236989736</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>74.98619773129268</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>165.7459010341442</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.66396365647125</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>269.098718430618</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.6126310577748</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>142.4385057595941</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.64226186542875</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,13 +2792,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652579</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002298</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4334,10 +4334,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.852659508903</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,49 +4410,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>471.3317757503526</v>
       </c>
       <c r="M4" t="n">
-        <v>676.5126137591994</v>
+        <v>638.7642570495505</v>
       </c>
       <c r="N4" t="n">
-        <v>847.8214507890469</v>
+        <v>810.0730940793979</v>
       </c>
       <c r="O4" t="n">
-        <v>985.7398000072367</v>
+        <v>947.9914432975877</v>
       </c>
       <c r="P4" t="n">
-        <v>1084.690802759995</v>
+        <v>1055.037596261252</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413765</v>
+        <v>1132.647892413767</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.817435171293</v>
+        <v>1132.647892413767</v>
       </c>
       <c r="S4" t="n">
-        <v>851.1315509981199</v>
+        <v>1132.647892413767</v>
       </c>
       <c r="T4" t="n">
-        <v>629.3649355676459</v>
+        <v>1132.647892413767</v>
       </c>
       <c r="U4" t="n">
-        <v>629.3649355676459</v>
+        <v>1132.647892413767</v>
       </c>
       <c r="V4" t="n">
-        <v>374.6804473617591</v>
+        <v>1132.647892413767</v>
       </c>
       <c r="W4" t="n">
-        <v>213.4020639300938</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="X4" t="n">
-        <v>213.4020639300938</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E5" t="n">
         <v>786.1136677276231</v>
@@ -4559,13 +4559,13 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1581.036375996183</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1581.036375996183</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1346.421946430154</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1346.421946430154</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>1057.004776393193</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>198.744407872558</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>336.3048548543961</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4149073564858</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
@@ -7081,10 +7081,10 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,22 +7117,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
@@ -7160,46 +7160,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,22 +7354,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8134,16 +8134,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8.176919404955242</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.39022454063583</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>280.1262230804338</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>302.8185005949816</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.8573987392423</v>
+        <v>57.35053825325888</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597304</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>70.88187642684009</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>49733.50450522573</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="E2" t="n">
         <v>60535.99497675046</v>
       </c>
       <c r="F2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="G2" t="n">
         <v>60535.99497675047</v>
       </c>
-      <c r="G2" t="n">
-        <v>60535.99497675045</v>
-      </c>
       <c r="H2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982119</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982122</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982126</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982127</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3287.485941553353</v>
+        <v>3287.485941553367</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26433,31 +26433,31 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493624</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="L4" t="n">
+        <v>21597.66737493621</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21597.66737493621</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21597.66737493621</v>
+      </c>
+      <c r="O4" t="n">
         <v>21597.66737493622</v>
       </c>
-      <c r="M4" t="n">
-        <v>21597.66737493624</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21597.66737493624</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21597.66737493627</v>
-      </c>
       <c r="P4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1390232.667725313</v>
+        <v>-1390627.488666467</v>
       </c>
       <c r="C6" t="n">
         <v>-139149.6507047661</v>
       </c>
       <c r="D6" t="n">
-        <v>-139149.650704766</v>
+        <v>-139149.6507047661</v>
       </c>
       <c r="E6" t="n">
-        <v>-379605.8047663547</v>
+        <v>-379640.5426917903</v>
       </c>
       <c r="F6" t="n">
-        <v>-54193.34295899939</v>
+        <v>-54228.0808844351</v>
       </c>
       <c r="G6" t="n">
-        <v>-54193.3429589994</v>
+        <v>-54228.08088443508</v>
       </c>
       <c r="H6" t="n">
-        <v>-54193.3429589994</v>
+        <v>-54228.0808844351</v>
       </c>
       <c r="I6" t="n">
-        <v>-54193.34295899946</v>
+        <v>-54228.0808844351</v>
       </c>
       <c r="J6" t="n">
-        <v>-271724.5453562769</v>
+        <v>-271759.2832817126</v>
       </c>
       <c r="K6" t="n">
-        <v>-82611.36848266222</v>
+        <v>-82611.36848266218</v>
       </c>
       <c r="L6" t="n">
-        <v>-63183.6504890304</v>
+        <v>-63183.65048903038</v>
       </c>
       <c r="M6" t="n">
         <v>-148238.6784245422</v>
       </c>
       <c r="N6" t="n">
-        <v>-63183.65048903034</v>
+        <v>-63183.65048903035</v>
       </c>
       <c r="O6" t="n">
-        <v>-63183.65048903041</v>
+        <v>-63183.65048903035</v>
       </c>
       <c r="P6" t="n">
-        <v>-82611.3684826621</v>
+        <v>-82611.36848266216</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>75.73292083663711</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>263.6620728553731</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>155.4545369062718</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>331.8898480104187</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.984179106141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>120.4659371714687</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29512,13 +29512,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,10 +33026,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>663.4727207607269</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34854,16 +34854,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
         <v>173.0392293230783</v>
@@ -34872,10 +34872,10 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>108.1274272360246</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.44150470077803</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,10 +36674,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>520.8764763162825</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
